--- a/outputs-r202/p__Firmicutes.xlsx
+++ b/outputs-r202/p__Firmicutes.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -561,6 +581,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +610,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +668,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -657,6 +697,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -681,6 +726,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -705,6 +755,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -729,6 +784,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -753,6 +813,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -777,6 +842,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -801,6 +871,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -825,6 +900,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -849,6 +929,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -873,6 +958,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -897,6 +987,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -921,6 +1016,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -945,6 +1045,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -969,6 +1074,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -993,6 +1103,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1017,6 +1132,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1041,6 +1161,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1065,6 +1190,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1089,6 +1219,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1113,6 +1248,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1137,6 +1277,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1161,6 +1306,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1185,6 +1335,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1209,6 +1364,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1233,6 +1393,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1257,6 +1422,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1281,6 +1451,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1305,6 +1480,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1329,6 +1509,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1353,6 +1538,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1377,6 +1567,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1401,6 +1596,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1425,6 +1625,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1449,6 +1654,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1473,6 +1683,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1497,6 +1712,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1521,6 +1741,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1545,6 +1770,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1569,6 +1799,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1593,6 +1828,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1617,6 +1857,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1641,6 +1886,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1665,6 +1915,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>c__Bacilli(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1689,6 +1944,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1713,6 +1973,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1737,6 +2002,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1761,6 +2031,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1785,6 +2060,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1809,6 +2089,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1833,6 +2118,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1857,6 +2147,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
@@ -1881,6 +2176,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
@@ -1905,6 +2205,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
@@ -1929,6 +2234,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
@@ -1953,6 +2263,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
@@ -1977,6 +2292,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
@@ -2001,6 +2321,11 @@
           <t>c__Bacilli</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
@@ -2021,6 +2346,11 @@
         <v>0.9999989923472767</v>
       </c>
       <c r="F66" t="inlineStr">
+        <is>
+          <t>c__Bacilli</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
         <is>
           <t>c__Bacilli</t>
         </is>

--- a/outputs-r202/p__Firmicutes.xlsx
+++ b/outputs-r202/p__Firmicutes.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,20 +474,20 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG005.fasta</t>
+          <t>RUG016.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.222127766177151e-14</v>
+        <v>5.770599851595453e-08</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999999999998956</v>
+        <v>0.9999999422939793</v>
       </c>
       <c r="D2" t="n">
-        <v>2.220446049250236e-14</v>
+        <v>2.22044739664583e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999999999998956</v>
+        <v>0.9999999422939793</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -503,20 +503,20 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG016.fasta</t>
+          <t>RUG017.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.770599851595453e-08</v>
+        <v>6.294015898095047e-08</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9999999422939793</v>
+        <v>0.9999999370598188</v>
       </c>
       <c r="D3" t="n">
-        <v>2.22044739664583e-14</v>
+        <v>2.220449747640342e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999422939793</v>
+        <v>0.9999999370598188</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -532,20 +532,20 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RUG017.fasta</t>
+          <t>RUG021.fasta</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.294015898095047e-08</v>
+        <v>5.346757938908122e-07</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9999999370598188</v>
+        <v>0.9999994653241839</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220449747640342e-14</v>
+        <v>2.220456709595623e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999370598188</v>
+        <v>0.9999994653241839</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -561,20 +561,20 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RUG021.fasta</t>
+          <t>RUG026.fasta</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.346757938908122e-07</v>
+        <v>2.253688482427953e-07</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9999994653241839</v>
+        <v>0.9999997746311294</v>
       </c>
       <c r="D5" t="n">
-        <v>2.220456709595623e-14</v>
+        <v>2.220445882640539e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999994653241839</v>
+        <v>0.9999997746311294</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -590,20 +590,20 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>RUG026.fasta</t>
+          <t>RUG042.fasta</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.253688482427953e-07</v>
+        <v>5.69568383347517e-07</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9999997746311294</v>
+        <v>0.9999994304315944</v>
       </c>
       <c r="D6" t="n">
-        <v>2.220445882640539e-14</v>
+        <v>2.220532468730445e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999997746311294</v>
+        <v>0.9999994304315944</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -619,20 +619,20 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>RUG042.fasta</t>
+          <t>RUG049.fasta</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.69568383347517e-07</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9999994304315944</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220532468730445e-14</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999994304315944</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RUG049.fasta</t>
+          <t>RUG050.fasta</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -677,7 +677,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RUG052.fasta</t>
+          <t>RUG051.fasta</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -706,7 +706,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RUG053.fasta</t>
+          <t>RUG052.fasta</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -735,7 +735,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>RUG054.fasta</t>
+          <t>RUG053.fasta</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -764,20 +764,20 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>RUG123.fasta</t>
+          <t>RUG054.fasta</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.619791467921596e-08</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.999999963802063</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>2.220446552521456e-14</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999999963802063</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -793,20 +793,20 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>RUG128.fasta</t>
+          <t>RUG123.fasta</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.111857161411649e-13</v>
+        <v>3.619791467921596e-08</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9999999999997666</v>
+        <v>0.999999963802063</v>
       </c>
       <c r="D13" t="n">
-        <v>2.220446049251757e-14</v>
+        <v>2.220446552521456e-14</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999999999997666</v>
+        <v>0.999999963802063</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -880,20 +880,20 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>RUG214.fasta</t>
+          <t>RUG261.fasta</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3.375290078608139e-08</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.999999966247077</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.220446181896128e-14</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0.999999966247077</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -909,20 +909,20 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RUG222.fasta</t>
+          <t>RUG262.fasta</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.032714757008247e-14</v>
+        <v>3.458726558658338e-08</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999999999999375</v>
+        <v>0.9999999654127122</v>
       </c>
       <c r="D17" t="n">
-        <v>2.220446049250679e-14</v>
+        <v>2.220446459019138e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999999999375</v>
+        <v>0.9999999654127122</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -938,20 +938,20 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RUG261.fasta</t>
+          <t>RUG286.fasta</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.375290078608139e-08</v>
+        <v>4.756552487221319e-08</v>
       </c>
       <c r="C18" t="n">
-        <v>0.999999966247077</v>
+        <v>0.9999999524344529</v>
       </c>
       <c r="D18" t="n">
-        <v>2.220446181896128e-14</v>
+        <v>2.220447587938946e-14</v>
       </c>
       <c r="E18" t="n">
-        <v>0.999999966247077</v>
+        <v>0.9999999524344529</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -967,20 +967,20 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RUG262.fasta</t>
+          <t>RUG287.fasta</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.458726558658338e-08</v>
+        <v>4.777341406760373e-10</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9999999654127122</v>
+        <v>0.9999999995222436</v>
       </c>
       <c r="D19" t="n">
-        <v>2.220446459019138e-14</v>
+        <v>2.220446133949308e-14</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999999654127122</v>
+        <v>0.9999999995222436</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -996,20 +996,20 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>RUG286.fasta</t>
+          <t>RUG306.fasta</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.756552487221319e-08</v>
+        <v>1.247984391330324e-09</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9999999524344529</v>
+        <v>0.9999999987519934</v>
       </c>
       <c r="D20" t="n">
-        <v>2.220447587938946e-14</v>
+        <v>2.220446048442884e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999999524344529</v>
+        <v>0.9999999987519934</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1025,20 +1025,20 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RUG287.fasta</t>
+          <t>RUG319.fasta</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.777341406760373e-10</v>
+        <v>2.015758707333723e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9999999995222436</v>
+        <v>0.9999979842412705</v>
       </c>
       <c r="D21" t="n">
-        <v>2.220446133949308e-14</v>
+        <v>2.220444699552335e-14</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999999995222436</v>
+        <v>0.9999979842412705</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1054,20 +1054,20 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RUG298.fasta</t>
+          <t>RUG343.fasta</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.771571350757668e-05</v>
+        <v>1.598234395888635e-08</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9999722842864701</v>
+        <v>0.9999999840176338</v>
       </c>
       <c r="D22" t="n">
-        <v>2.220428457900068e-14</v>
+        <v>2.220446040192267e-14</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999722842864701</v>
+        <v>0.9999999840176338</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1083,20 +1083,20 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>RUG306.fasta</t>
+          <t>RUG346.fasta</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.247984391330324e-09</v>
+        <v>2.448794752402844e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9999999987519934</v>
+        <v>0.9999975512052255</v>
       </c>
       <c r="D23" t="n">
-        <v>2.220446048442884e-14</v>
+        <v>2.220444790481168e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999999987519934</v>
+        <v>0.9999975512052255</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1112,20 +1112,20 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>RUG319.fasta</t>
+          <t>RUG357.fasta</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.015758707333723e-06</v>
+        <v>1.291688905576067e-06</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9999979842412705</v>
+        <v>0.9999987083110722</v>
       </c>
       <c r="D24" t="n">
-        <v>2.220444699552335e-14</v>
+        <v>2.220445093221953e-14</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999979842412705</v>
+        <v>0.9999987083110722</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1141,20 +1141,20 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>RUG346.fasta</t>
+          <t>RUG374.fasta</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.448794752402844e-06</v>
+        <v>3.280418687846665e-07</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9999975512052255</v>
+        <v>0.999999671958109</v>
       </c>
       <c r="D25" t="n">
-        <v>2.220444790481168e-14</v>
+        <v>2.220445834270555e-14</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999975512052255</v>
+        <v>0.999999671958109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1170,20 +1170,20 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>RUG374.fasta</t>
+          <t>RUG503.fasta</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.280418687846665e-07</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.999999671958109</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>2.220445834270555e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.999999671958109</v>
+        <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1199,20 +1199,20 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>RUG503.fasta</t>
+          <t>RUG513.fasta</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1.315078793841169e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0.9999998684920983</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>2.220445951957759e-14</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0.9999998684920983</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1228,20 +1228,20 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>RUG513.fasta</t>
+          <t>RUG530.fasta</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.315078793841169e-07</v>
+        <v>3.7626433012725e-11</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9999998684920983</v>
+        <v>0.9999999999623513</v>
       </c>
       <c r="D28" t="n">
-        <v>2.220445951957759e-14</v>
+        <v>2.220446049222443e-14</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9999998684920983</v>
+        <v>0.9999999999623513</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1257,20 +1257,20 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>RUG530.fasta</t>
+          <t>RUG591.fasta</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3.7626433012725e-11</v>
+        <v>1.976357607783073e-12</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9999999999623513</v>
+        <v>0.9999999999980015</v>
       </c>
       <c r="D29" t="n">
-        <v>2.220446049222443e-14</v>
+        <v>2.220446049248817e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9999999999623513</v>
+        <v>0.9999999999980015</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1286,20 +1286,20 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>RUG584.fasta</t>
+          <t>RUG594.fasta</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9.990227669916192e-11</v>
+        <v>1.950298202346676e-10</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9999999999000755</v>
+        <v>0.9999999998049479</v>
       </c>
       <c r="D30" t="n">
-        <v>2.220446050098156e-14</v>
+        <v>2.220446049106873e-14</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9999999999000755</v>
+        <v>0.9999999998049479</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1315,20 +1315,20 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>RUG591.fasta</t>
+          <t>RUG610.fasta</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.976357607783073e-12</v>
+        <v>4.425873615699401e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9999999999980015</v>
+        <v>0.9999557412638208</v>
       </c>
       <c r="D31" t="n">
-        <v>2.220446049248817e-14</v>
+        <v>2.220698358984214e-14</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9999999999980015</v>
+        <v>0.9999557412638208</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1344,20 +1344,20 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>RUG594.fasta</t>
+          <t>RUG655.fasta</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.950298202346676e-10</v>
+        <v>8.508659510764289e-08</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9999999998049479</v>
+        <v>0.9999999149133827</v>
       </c>
       <c r="D32" t="n">
-        <v>2.220446049106873e-14</v>
+        <v>2.2204459870293e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9999999998049479</v>
+        <v>0.9999999149133827</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1373,20 +1373,20 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>RUG610.fasta</t>
+          <t>RUG664.fasta</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.425873615699401e-05</v>
+        <v>1.449420581411283e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9999557412638208</v>
+        <v>0.9999998550579197</v>
       </c>
       <c r="D33" t="n">
-        <v>2.220698358984214e-14</v>
+        <v>2.220445942014286e-14</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9999557412638208</v>
+        <v>0.9999998550579197</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1402,20 +1402,20 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>RUG655.fasta</t>
+          <t>RUG696.fasta</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.508659510764289e-08</v>
+        <v>0.0003131225119722567</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9999999149133827</v>
+        <v>0.9996868774880057</v>
       </c>
       <c r="D34" t="n">
-        <v>2.2204459870293e-14</v>
+        <v>2.220335237340608e-14</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9999999149133827</v>
+        <v>0.9996868774880057</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1431,20 +1431,20 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>RUG664.fasta</t>
+          <t>RUG698.fasta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.449420581411283e-07</v>
+        <v>0.0005081735734281932</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9999998550579197</v>
+        <v>0.9994918264265497</v>
       </c>
       <c r="D35" t="n">
-        <v>2.220445942014286e-14</v>
+        <v>2.220633565208478e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9999998550579197</v>
+        <v>0.9994918264265497</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1460,20 +1460,20 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>RUG696.fasta</t>
+          <t>RUG705.fasta</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0003131225119722567</v>
+        <v>0.0001499092584432328</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9996868774880057</v>
+        <v>0.9998500907415345</v>
       </c>
       <c r="D36" t="n">
-        <v>2.220335237340608e-14</v>
+        <v>2.220335206616245e-14</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9996868774880057</v>
+        <v>0.9998500907415345</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -1489,20 +1489,20 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>RUG705.fasta</t>
+          <t>RUG727.fasta</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0001499092584432328</v>
+        <v>1.964953288998336e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>0.9998500907415345</v>
+        <v>0.9999998035046489</v>
       </c>
       <c r="D37" t="n">
-        <v>2.220335206616245e-14</v>
+        <v>2.220445909487969e-14</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9998500907415345</v>
+        <v>0.9999998035046489</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1518,20 +1518,20 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>RUG712.fasta</t>
+          <t>RUG793.fasta</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2744588112565686</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4514644190018599</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2740767697415715</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4514644190018599</v>
+        <v>1</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -1540,27 +1540,27 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>c__Bacilli(reject)</t>
+          <t>c__Bacilli</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>RUG727.fasta</t>
+          <t>RUG820.fasta</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.964953288998336e-07</v>
+        <v>0.001373341383459314</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9999998035046489</v>
+        <v>0.9986266586165184</v>
       </c>
       <c r="D39" t="n">
-        <v>2.220445909487969e-14</v>
+        <v>2.219807185106151e-14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9999998035046489</v>
+        <v>0.9986266586165184</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -1576,20 +1576,20 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>RUG793.fasta</t>
+          <t>RUG832.fasta</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>3.729939006589402e-12</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0.9999999999962479</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>2.220446049247521e-14</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0.9999999999962479</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1605,20 +1605,20 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>RUG810.fasta</t>
+          <t>RUG840.fasta</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.16489923927407e-07</v>
+        <v>2.320807699519509e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>0.9999996835100539</v>
+        <v>0.9999999999997458</v>
       </c>
       <c r="D41" t="n">
-        <v>2.220452007160497e-14</v>
+        <v>2.220446049250117e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9999996835100539</v>
+        <v>0.9999999999997458</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -1634,20 +1634,20 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>RUG820.fasta</t>
+          <t>hRUG876.fasta</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.001373341383459314</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9986266586165184</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>2.219807185106151e-14</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9986266586165184</v>
+        <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -1663,20 +1663,20 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>RUG832.fasta</t>
+          <t>hRUG889.fasta</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.729939006589402e-12</v>
+        <v>1.850990117700568e-06</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9999999999962479</v>
+        <v>0.9999981490098601</v>
       </c>
       <c r="D43" t="n">
-        <v>2.220446049247521e-14</v>
+        <v>2.220444679256746e-14</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9999999999962479</v>
+        <v>0.9999981490098601</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1692,20 +1692,20 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>RUG833.fasta</t>
+          <t>hRUG902.fasta</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5.515496168705563e-07</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0.999999448450361</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>2.220445641193947e-14</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.999999448450361</v>
+        <v>1</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1721,20 +1721,20 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>RUG840.fasta</t>
+          <t>hRUG912.fasta</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.320807699519509e-13</v>
+        <v>1.720738591014795e-06</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9999999999997458</v>
+        <v>0.9999982792613867</v>
       </c>
       <c r="D45" t="n">
-        <v>2.220446049250117e-14</v>
+        <v>2.220445012288481e-14</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9999999999997458</v>
+        <v>0.9999982792613867</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -1742,615 +1742,6 @@
         </is>
       </c>
       <c r="G45" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>hRUG876.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>hRUG889.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1.850990117700568e-06</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.9999981490098601</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2.220444679256746e-14</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.9999981490098601</v>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>hRUG895.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>4.379364314693092e-08</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.9999999562063346</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2.220446017874376e-14</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.9999999562063346</v>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>hRUG902.fasta</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>hRUG912.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1.720738591014795e-06</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.9999982792613867</v>
-      </c>
-      <c r="D50" t="n">
-        <v>2.220445012288481e-14</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.9999982792613867</v>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>RUG712.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.2752238486590751</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.4502429198341256</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.2745332315067994</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.4502429198341256</v>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>c__Bacilli(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>RUG727.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>7.172854436534794e-08</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.9999999282714335</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2.220445999464031e-14</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.9999999282714335</v>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>RUG793.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>RUG809.fasta</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>4.08382312668548e-13</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.9999999999995695</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2.220446049250207e-14</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.9999999999995695</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>RUG810.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>1.728541757380444e-07</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.999999827145802</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2.220446854580085e-14</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.999999827145802</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>RUG817.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>2.732266035772e-05</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.99997267733962</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2.220425906627266e-14</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.99997267733962</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>RUG820.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>9.165521239017881e-05</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.9999083447875877</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2.220378231790462e-14</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.9999083447875877</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>RUG832.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>3.046930234786577e-12</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.9999999999969308</v>
-      </c>
-      <c r="D58" t="n">
-        <v>2.220446049248025e-14</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.9999999999969308</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>RUG833.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2.019752549611387e-10</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.9999999997980025</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2.220446049100812e-14</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.9999999997980025</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>RUG840.fasta</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>1.316874533911135e-13</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.999999999999846</v>
-      </c>
-      <c r="D60" t="n">
-        <v>2.220446049250189e-14</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.999999999999846</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>hRUG852.fasta</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>hRUG876.fasta</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>hRUG889.fasta</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2.453687967978251e-06</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.9999975463120098</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2.220444233178367e-14</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.9999975463120098</v>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>hRUG895.fasta</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1.983785382595354e-08</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.999999980162124</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2.22044603480648e-14</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.999999980162124</v>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>hRUG902.fasta</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>hRUG912.fasta</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>1.007652701149862e-06</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.9999989923472767</v>
-      </c>
-      <c r="D66" t="n">
-        <v>2.220445413003391e-14</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.9999989923472767</v>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>c__Bacilli</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
         <is>
           <t>c__Bacilli</t>
         </is>
